--- a/Survey of OB of Civil Hospital, Jalna (Responses).xlsx
+++ b/Survey of OB of Civil Hospital, Jalna (Responses).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IITB\Semester 4\HS490\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IITB\Semester 4\HS490\Project\LaTeK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B59AC8-C262-4769-AC14-8503570F3F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64383BE3-C513-403E-880D-859D970A1226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="14868" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="0" windowWidth="10776" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -637,12 +637,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="31.88671875" customWidth="1"/>
+    <col min="12" max="12" width="35.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" customWidth="1"/>
+    <col min="14" max="15" width="50.77734375" customWidth="1"/>
+    <col min="16" max="16" width="37.33203125" customWidth="1"/>
+    <col min="17" max="17" width="26.21875" customWidth="1"/>
+    <col min="18" max="18" width="19.77734375" customWidth="1"/>
+    <col min="19" max="19" width="27.88671875" customWidth="1"/>
+    <col min="20" max="20" width="34.21875" customWidth="1"/>
+    <col min="21" max="21" width="30" customWidth="1"/>
+    <col min="22" max="22" width="34.33203125" customWidth="1"/>
+    <col min="23" max="23" width="33.5546875" customWidth="1"/>
+    <col min="24" max="26" width="50.77734375" customWidth="1"/>
+    <col min="27" max="27" width="27.77734375" customWidth="1"/>
+    <col min="28" max="28" width="24.77734375" customWidth="1"/>
+    <col min="29" max="32" width="50.77734375" customWidth="1"/>
     <col min="34" max="39" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -740,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45015.590982268521</v>
       </c>
@@ -814,7 +839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45015.61526791667</v>
       </c>
@@ -885,7 +910,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45015.620644953699</v>
       </c>
@@ -974,7 +999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45015.623919999998</v>
       </c>
@@ -1048,7 +1073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45015.635839652779</v>
       </c>
@@ -1122,7 +1147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45015.646045370369</v>
       </c>
@@ -1205,7 +1230,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45015.646149155087</v>
       </c>
@@ -1279,7 +1304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45015.651942546298</v>
       </c>
@@ -1347,7 +1372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45015.654896504631</v>
       </c>
@@ -1418,7 +1443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45015.669402361113</v>
       </c>
@@ -1468,7 +1493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45015.673166701388</v>
       </c>
@@ -1560,7 +1585,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45015.700508148147</v>
       </c>
@@ -1628,7 +1653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45015.708439074078</v>
       </c>
@@ -1702,7 +1727,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45015.74084515046</v>
       </c>
@@ -1788,7 +1813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45015.780659629629</v>
       </c>
@@ -1859,7 +1884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45015.792735347219</v>
       </c>
@@ -1948,7 +1973,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45015.950000659723</v>
       </c>
@@ -2019,7 +2044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45016.391645069445</v>
       </c>
@@ -2108,7 +2133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45016.428484398144</v>
       </c>

--- a/Survey of OB of Civil Hospital, Jalna (Responses).xlsx
+++ b/Survey of OB of Civil Hospital, Jalna (Responses).xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IITB\Semester 4\HS490\Project\LaTeK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64383BE3-C513-403E-880D-859D970A1226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E040425-C8EA-48DA-A3EB-0812EB90975D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="0" windowWidth="10776" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="115">
   <si>
     <t>Timestamp</t>
   </si>
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>Any specific remarks about above questions?</t>
-  </si>
-  <si>
-    <t>Suppose you receive an order. Which of the following would affect your response significantly in its execution?
-Compare this as follows, I have received this order from person 'x', hence I should do this 'y'(immediately or later etc.), and the quality of work should be 'y' (good or bad).</t>
   </si>
   <si>
     <t>Are employees who work exceptionally well rewarded?</t>
@@ -357,10 +353,19 @@
     <t xml:space="preserve">Dr udayan Paritkar </t>
   </si>
   <si>
-    <t xml:space="preserve">Doctor </t>
-  </si>
-  <si>
     <t>Nil</t>
+  </si>
+  <si>
+    <t>Suppose you receive an order. Which of the following would affect your response significantly in its execution?</t>
+  </si>
+  <si>
+    <t>Any specific remarks about above questions?2</t>
+  </si>
+  <si>
+    <t>Any specific remarks about above questions?3</t>
+  </si>
+  <si>
+    <t>Any specific remarks about above questions?4</t>
   </si>
 </sst>
 </file>
@@ -370,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -380,6 +385,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -405,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -415,11 +427,603 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -430,6 +1034,47 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1527B9EB-C601-49A2-9E27-2DA2A17BB312}" name="Table1" displayName="Table1" ref="A1:AC20" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <autoFilter ref="A1:AC20" xr:uid="{1527B9EB-C601-49A2-9E27-2DA2A17BB312}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC20">
+    <sortCondition ref="C1:C20"/>
+  </sortState>
+  <tableColumns count="29">
+    <tableColumn id="1" xr3:uid="{59DFFDF7-0103-4D9C-8B3C-9A183104B447}" name="Timestamp" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{9C8CA424-F1C0-496C-A807-665472C52DD1}" name="Your name" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{8B35F2E6-434D-4CCF-A194-C05FFCDB8806}" name="Your role in the organization" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{987325A3-3ECE-4898-B91B-C0CC9327237A}" name="While interacting with patients, we avoid using phrases which can trigger emotion." dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{39F34DB3-07FE-4974-BA0F-3C8859D5F091}" name="We can speak freely to our colleagues and seniors in the organization." dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{155C8E84-0DC9-4259-A521-1A30CF351D42}" name="We tolerate our colleagues for their display of anger or annoyance." dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{2F30BB02-7E79-46A7-980C-5CE0C4D30526}" name="We try to hide our mood (be it happy or sad) while talking to others during working hours." dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{3F7666C1-7243-4B4C-B3F4-DA65A56D4D12}" name="Any specific remarks with respect to questions in this section?" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{01812883-7842-4A56-A1BC-2E46103D132A}" name="All meetings commence on scheduled time " dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{35E8D297-ADDD-4516-9D37-8F951BB50847}" name="If a decision is taken in meeting, we don't discuss same topic again and again even if we receive new information on the topic." dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{D5B7B1C8-4831-4740-BE66-C037518CC417}" name="During meeting, we also discuss about preparation about uncertain or unexpected situation like fire, epidemic or floods, etc. " dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{3BB15B02-B8B5-4A35-BC83-51DABAEF5E67}" name="Employees are expected to follow the rules and regulations set forth by the organization without question and deviation is not tolerated" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{63DCC2CB-00DB-4596-8259-1E1200A52A3F}" name="Any specific remarks about above questions?" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{2006958F-0FEF-41A5-8667-1A67497A4925}" name="Suppose you receive an order. Which of the following would affect your response significantly in its execution?" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{F981D057-423B-494C-A323-FBE457E74CB2}" name="Are employees who work exceptionally well rewarded?" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{D669AD5E-87C4-4166-B02C-66764F2A44DF}" name="If you answered yes to last question, describe how are they rewarded?_x000a_e.g. Promotion, monetary reward, social status." dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{E5681091-F1A2-4F09-8551-C641FCF7F1F7}" name="On which criteria are the performance of the employees is judged?" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{9998A02C-3CA0-461C-9494-E82BAC5DCD4F}" name="Any specific remarks about above questions?2" dataDxfId="16"/>
+    <tableColumn id="19" xr3:uid="{DAB5A8B4-9E53-48B6-8B5E-1074E7F48D3A}" name="Which of the following is more preferred in the hospital? " dataDxfId="15"/>
+    <tableColumn id="20" xr3:uid="{286C7C19-1141-418B-B7E1-840526CD176B}" name="Which of the following is more preferred for the hospital according to you? " dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{720DFF79-EB18-469D-95FB-40E8AB4EE14D}" name="Suppose a new procedure for a surgery of organ 'x' is discovered which is easier, cheaper and safer. How much time would the hospital take to adapt it? " dataDxfId="13"/>
+    <tableColumn id="22" xr3:uid="{0A6DECCD-A84B-4FCF-8802-AC810E8ECFC0}" name="Any specific remarks about above questions?3" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{F52A6CC5-6EEC-490F-87A6-C3AC885E4445}" name="Suppose, a surgery of intestine was performed at the hospital by a team of 6 members. But due to some ignorance, the patient caught infection in the stomach. Who takes responsibility of this action?" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{D5ED9AB7-A83B-4FE1-8D17-1B9F208DFC53}" name="Now consider the reverse case, suppose there is cholera epidemic in the city. The hospital performed very well and provided proper response to the epidemic. Who takes the credits in this case or who is rewarded most?" dataDxfId="10"/>
+    <tableColumn id="25" xr3:uid="{1FF4D6F9-D1A8-4BE2-887F-B3D105DB31D9}" name="Any specific remarks about above questions?4" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{40F7F033-3366-44CF-8A15-FAF744077E3E}" name="All the decision making power lies with the head of the hospital and others don't have much say" dataDxfId="8"/>
+    <tableColumn id="27" xr3:uid="{4F042AD5-E784-407D-8FC5-7D513211FDD4}" name="How do you communicate with each other?" dataDxfId="7"/>
+    <tableColumn id="28" xr3:uid="{A6ABA04C-69CC-4373-A14A-E385567F4CA8}" name="Communication is open and transparent and we can share our ideas and feedback" dataDxfId="6"/>
+    <tableColumn id="29" xr3:uid="{1FDCEFB0-F7FD-4DC4-8EBE-9EEABA07D06E}" name="How the conflicts between members are resolved?" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,43 +1280,45 @@
   </sheetPr>
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L2:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="31.88671875" customWidth="1"/>
-    <col min="12" max="12" width="35.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" customWidth="1"/>
-    <col min="14" max="15" width="50.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="27.21875" customWidth="1"/>
+    <col min="9" max="9" width="39.44140625" customWidth="1"/>
+    <col min="10" max="10" width="95.21875" customWidth="1"/>
+    <col min="11" max="11" width="36.88671875" customWidth="1"/>
+    <col min="12" max="12" width="95.21875" customWidth="1"/>
+    <col min="13" max="13" width="41.33203125" customWidth="1"/>
+    <col min="14" max="14" width="95.21875" customWidth="1"/>
+    <col min="15" max="15" width="48.33203125" customWidth="1"/>
     <col min="16" max="16" width="37.33203125" customWidth="1"/>
-    <col min="17" max="17" width="26.21875" customWidth="1"/>
-    <col min="18" max="18" width="19.77734375" customWidth="1"/>
-    <col min="19" max="19" width="27.88671875" customWidth="1"/>
-    <col min="20" max="20" width="34.21875" customWidth="1"/>
-    <col min="21" max="21" width="30" customWidth="1"/>
-    <col min="22" max="22" width="34.33203125" customWidth="1"/>
-    <col min="23" max="23" width="33.5546875" customWidth="1"/>
-    <col min="24" max="26" width="50.77734375" customWidth="1"/>
-    <col min="27" max="27" width="27.77734375" customWidth="1"/>
-    <col min="28" max="28" width="24.77734375" customWidth="1"/>
+    <col min="17" max="17" width="58.5546875" customWidth="1"/>
+    <col min="18" max="18" width="42.44140625" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" customWidth="1"/>
+    <col min="20" max="20" width="64.6640625" customWidth="1"/>
+    <col min="21" max="21" width="95.21875" customWidth="1"/>
+    <col min="22" max="22" width="42.44140625" customWidth="1"/>
+    <col min="23" max="24" width="95.21875" customWidth="1"/>
+    <col min="25" max="25" width="42.44140625" customWidth="1"/>
+    <col min="26" max="26" width="82" customWidth="1"/>
+    <col min="27" max="27" width="39.21875" customWidth="1"/>
+    <col min="28" max="28" width="72.44140625" customWidth="1"/>
     <col min="29" max="32" width="50.77734375" customWidth="1"/>
     <col min="34" max="39" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -712,52 +1359,52 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
@@ -767,76 +1414,73 @@
     </row>
     <row r="2" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45015.590982268521</v>
+        <v>45015.950000659723</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="Z2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
@@ -844,123 +1488,111 @@
         <v>45015.61526791667</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45015.620644953699</v>
+        <v>45015.700508148147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>35</v>
@@ -969,108 +1601,114 @@
         <v>35</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="Z4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AA4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="AF4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45015.623919999998</v>
+        <v>45016.391645069445</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AB5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
@@ -1078,271 +1716,283 @@
         <v>45015.635839652779</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="S6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="AB6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45015.646045370369</v>
+        <v>45015.646149155087</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>45</v>
+      <c r="P7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF7" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45015.646149155087</v>
+        <v>45015.620644953699</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="Q8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="T8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="W8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45015.651942546298</v>
+        <v>45015.623919999998</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>35</v>
@@ -1351,119 +2001,116 @@
         <v>35</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45015.654896504631</v>
+        <v>45015.651942546298</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="T10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="AC10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45015.669402361113</v>
+        <v>45015.646045370369</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>29</v>
@@ -1472,309 +2119,360 @@
         <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="R11" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="S11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45015.673166701388</v>
+        <v>45015.74084515046</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="P12" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="V12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF12" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45015.700508148147</v>
+        <v>45015.792735347219</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="Q13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="U13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="AB13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45015.708439074078</v>
+        <v>45016.428484398144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="X14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AB14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC14" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45015.74084515046</v>
+        <v>45015.654896504631</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>35</v>
@@ -1783,241 +2481,232 @@
         <v>35</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45015.780659629629</v>
+        <v>45015.708439074078</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="O16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="W16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45015.792735347219</v>
+        <v>45015.673166701388</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF17" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45015.950000659723</v>
+        <v>45015.669402361113</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>35</v>
@@ -2025,207 +2714,175 @@
       <c r="T18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="Z18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45016.391645069445</v>
+        <v>45015.590982268521</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>45</v>
+      <c r="P19" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="U19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="X19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45016.428484398144</v>
+        <v>45015.780659629629</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF20" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2:I20">
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J20">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Survey of OB of Civil Hospital, Jalna (Responses).xlsx
+++ b/Survey of OB of Civil Hospital, Jalna (Responses).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IITB\Semester 4\HS490\Project\LaTeK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E040425-C8EA-48DA-A3EB-0812EB90975D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0E369B-A0B9-4B3D-8E17-3FEB20D680C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="115">
   <si>
     <t>Timestamp</t>
   </si>
@@ -480,548 +480,548 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1037,41 +1037,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1527B9EB-C601-49A2-9E27-2DA2A17BB312}" name="Table1" displayName="Table1" ref="A1:AC20" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1527B9EB-C601-49A2-9E27-2DA2A17BB312}" name="Table1" displayName="Table1" ref="A1:AC20" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:AC20" xr:uid="{1527B9EB-C601-49A2-9E27-2DA2A17BB312}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC20">
     <sortCondition ref="C1:C20"/>
   </sortState>
   <tableColumns count="29">
-    <tableColumn id="1" xr3:uid="{59DFFDF7-0103-4D9C-8B3C-9A183104B447}" name="Timestamp" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{9C8CA424-F1C0-496C-A807-665472C52DD1}" name="Your name" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{8B35F2E6-434D-4CCF-A194-C05FFCDB8806}" name="Your role in the organization" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{987325A3-3ECE-4898-B91B-C0CC9327237A}" name="While interacting with patients, we avoid using phrases which can trigger emotion." dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{39F34DB3-07FE-4974-BA0F-3C8859D5F091}" name="We can speak freely to our colleagues and seniors in the organization." dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{155C8E84-0DC9-4259-A521-1A30CF351D42}" name="We tolerate our colleagues for their display of anger or annoyance." dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{2F30BB02-7E79-46A7-980C-5CE0C4D30526}" name="We try to hide our mood (be it happy or sad) while talking to others during working hours." dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{3F7666C1-7243-4B4C-B3F4-DA65A56D4D12}" name="Any specific remarks with respect to questions in this section?" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{01812883-7842-4A56-A1BC-2E46103D132A}" name="All meetings commence on scheduled time " dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{35E8D297-ADDD-4516-9D37-8F951BB50847}" name="If a decision is taken in meeting, we don't discuss same topic again and again even if we receive new information on the topic." dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{D5B7B1C8-4831-4740-BE66-C037518CC417}" name="During meeting, we also discuss about preparation about uncertain or unexpected situation like fire, epidemic or floods, etc. " dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{3BB15B02-B8B5-4A35-BC83-51DABAEF5E67}" name="Employees are expected to follow the rules and regulations set forth by the organization without question and deviation is not tolerated" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{63DCC2CB-00DB-4596-8259-1E1200A52A3F}" name="Any specific remarks about above questions?" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{2006958F-0FEF-41A5-8667-1A67497A4925}" name="Suppose you receive an order. Which of the following would affect your response significantly in its execution?" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{F981D057-423B-494C-A323-FBE457E74CB2}" name="Are employees who work exceptionally well rewarded?" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{D669AD5E-87C4-4166-B02C-66764F2A44DF}" name="If you answered yes to last question, describe how are they rewarded?_x000a_e.g. Promotion, monetary reward, social status." dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{E5681091-F1A2-4F09-8551-C641FCF7F1F7}" name="On which criteria are the performance of the employees is judged?" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{9998A02C-3CA0-461C-9494-E82BAC5DCD4F}" name="Any specific remarks about above questions?2" dataDxfId="16"/>
-    <tableColumn id="19" xr3:uid="{DAB5A8B4-9E53-48B6-8B5E-1074E7F48D3A}" name="Which of the following is more preferred in the hospital? " dataDxfId="15"/>
-    <tableColumn id="20" xr3:uid="{286C7C19-1141-418B-B7E1-840526CD176B}" name="Which of the following is more preferred for the hospital according to you? " dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{720DFF79-EB18-469D-95FB-40E8AB4EE14D}" name="Suppose a new procedure for a surgery of organ 'x' is discovered which is easier, cheaper and safer. How much time would the hospital take to adapt it? " dataDxfId="13"/>
-    <tableColumn id="22" xr3:uid="{0A6DECCD-A84B-4FCF-8802-AC810E8ECFC0}" name="Any specific remarks about above questions?3" dataDxfId="12"/>
-    <tableColumn id="23" xr3:uid="{F52A6CC5-6EEC-490F-87A6-C3AC885E4445}" name="Suppose, a surgery of intestine was performed at the hospital by a team of 6 members. But due to some ignorance, the patient caught infection in the stomach. Who takes responsibility of this action?" dataDxfId="11"/>
-    <tableColumn id="24" xr3:uid="{D5ED9AB7-A83B-4FE1-8D17-1B9F208DFC53}" name="Now consider the reverse case, suppose there is cholera epidemic in the city. The hospital performed very well and provided proper response to the epidemic. Who takes the credits in this case or who is rewarded most?" dataDxfId="10"/>
-    <tableColumn id="25" xr3:uid="{1FF4D6F9-D1A8-4BE2-887F-B3D105DB31D9}" name="Any specific remarks about above questions?4" dataDxfId="9"/>
-    <tableColumn id="26" xr3:uid="{40F7F033-3366-44CF-8A15-FAF744077E3E}" name="All the decision making power lies with the head of the hospital and others don't have much say" dataDxfId="8"/>
-    <tableColumn id="27" xr3:uid="{4F042AD5-E784-407D-8FC5-7D513211FDD4}" name="How do you communicate with each other?" dataDxfId="7"/>
-    <tableColumn id="28" xr3:uid="{A6ABA04C-69CC-4373-A14A-E385567F4CA8}" name="Communication is open and transparent and we can share our ideas and feedback" dataDxfId="6"/>
-    <tableColumn id="29" xr3:uid="{1FDCEFB0-F7FD-4DC4-8EBE-9EEABA07D06E}" name="How the conflicts between members are resolved?" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{59DFFDF7-0103-4D9C-8B3C-9A183104B447}" name="Timestamp" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{9C8CA424-F1C0-496C-A807-665472C52DD1}" name="Your name" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{8B35F2E6-434D-4CCF-A194-C05FFCDB8806}" name="Your role in the organization" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{987325A3-3ECE-4898-B91B-C0CC9327237A}" name="While interacting with patients, we avoid using phrases which can trigger emotion." dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{39F34DB3-07FE-4974-BA0F-3C8859D5F091}" name="We can speak freely to our colleagues and seniors in the organization." dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{155C8E84-0DC9-4259-A521-1A30CF351D42}" name="We tolerate our colleagues for their display of anger or annoyance." dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{2F30BB02-7E79-46A7-980C-5CE0C4D30526}" name="We try to hide our mood (be it happy or sad) while talking to others during working hours." dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{3F7666C1-7243-4B4C-B3F4-DA65A56D4D12}" name="Any specific remarks with respect to questions in this section?" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{01812883-7842-4A56-A1BC-2E46103D132A}" name="All meetings commence on scheduled time " dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{35E8D297-ADDD-4516-9D37-8F951BB50847}" name="If a decision is taken in meeting, we don't discuss same topic again and again even if we receive new information on the topic." dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{D5B7B1C8-4831-4740-BE66-C037518CC417}" name="During meeting, we also discuss about preparation about uncertain or unexpected situation like fire, epidemic or floods, etc. " dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{3BB15B02-B8B5-4A35-BC83-51DABAEF5E67}" name="Employees are expected to follow the rules and regulations set forth by the organization without question and deviation is not tolerated" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{63DCC2CB-00DB-4596-8259-1E1200A52A3F}" name="Any specific remarks about above questions?" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{2006958F-0FEF-41A5-8667-1A67497A4925}" name="Suppose you receive an order. Which of the following would affect your response significantly in its execution?" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{F981D057-423B-494C-A323-FBE457E74CB2}" name="Are employees who work exceptionally well rewarded?" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{D669AD5E-87C4-4166-B02C-66764F2A44DF}" name="If you answered yes to last question, describe how are they rewarded?_x000a_e.g. Promotion, monetary reward, social status." dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{E5681091-F1A2-4F09-8551-C641FCF7F1F7}" name="On which criteria are the performance of the employees is judged?" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{9998A02C-3CA0-461C-9494-E82BAC5DCD4F}" name="Any specific remarks about above questions?2" dataDxfId="14"/>
+    <tableColumn id="19" xr3:uid="{DAB5A8B4-9E53-48B6-8B5E-1074E7F48D3A}" name="Which of the following is more preferred in the hospital? " dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{286C7C19-1141-418B-B7E1-840526CD176B}" name="Which of the following is more preferred for the hospital according to you? " dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{720DFF79-EB18-469D-95FB-40E8AB4EE14D}" name="Suppose a new procedure for a surgery of organ 'x' is discovered which is easier, cheaper and safer. How much time would the hospital take to adapt it? " dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{0A6DECCD-A84B-4FCF-8802-AC810E8ECFC0}" name="Any specific remarks about above questions?3" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{F52A6CC5-6EEC-490F-87A6-C3AC885E4445}" name="Suppose, a surgery of intestine was performed at the hospital by a team of 6 members. But due to some ignorance, the patient caught infection in the stomach. Who takes responsibility of this action?" dataDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{D5ED9AB7-A83B-4FE1-8D17-1B9F208DFC53}" name="Now consider the reverse case, suppose there is cholera epidemic in the city. The hospital performed very well and provided proper response to the epidemic. Who takes the credits in this case or who is rewarded most?" dataDxfId="8"/>
+    <tableColumn id="25" xr3:uid="{1FF4D6F9-D1A8-4BE2-887F-B3D105DB31D9}" name="Any specific remarks about above questions?4" dataDxfId="7"/>
+    <tableColumn id="26" xr3:uid="{40F7F033-3366-44CF-8A15-FAF744077E3E}" name="All the decision making power lies with the head of the hospital and others don't have much say" dataDxfId="6"/>
+    <tableColumn id="27" xr3:uid="{4F042AD5-E784-407D-8FC5-7D513211FDD4}" name="How do you communicate with each other?" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{A6ABA04C-69CC-4373-A14A-E385567F4CA8}" name="Communication is open and transparent and we can share our ideas and feedback" dataDxfId="4"/>
+    <tableColumn id="29" xr3:uid="{1FDCEFB0-F7FD-4DC4-8EBE-9EEABA07D06E}" name="How the conflicts between members are resolved?" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1278,11 +1278,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF20"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L2:L20"/>
+      <selection pane="bottomLeft" activeCell="N34" sqref="M27:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1318,7 @@
     <col min="34" max="39" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2872,10 +2872,22 @@
         <v>110</v>
       </c>
     </row>
+    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="1"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I20">
-    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
-    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J20">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
